--- a/AutomaticResumeFilter/src/resources/ARF Signup.xlsx
+++ b/AutomaticResumeFilter/src/resources/ARF Signup.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javvkumar\IdeaProjects\Automatic-Resume-Filter-Automation\AutomaticResumeFilter\src\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashmittal2\Desktop\Automatic-Resume-Filter-Automation\AutomaticResumeFilter\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C825B1-CE09-468A-86FD-59B473E453DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27C6B9A-B3E6-44F9-9415-E58482F81446}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11265" xr2:uid="{E2DA63AA-E650-44EA-865C-7A408172C52D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E2DA63AA-E650-44EA-865C-7A408172C52D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -57,13 +57,22 @@
     <t>CSS,Java,python</t>
   </si>
   <si>
-    <t>mukes</t>
-  </si>
-  <si>
-    <t>mukeshse1@gmail.com</t>
-  </si>
-  <si>
-    <t>Mukesh23</t>
+    <t>shankar</t>
+  </si>
+  <si>
+    <t>prem</t>
+  </si>
+  <si>
+    <t>shankar1217</t>
+  </si>
+  <si>
+    <t>prem1217</t>
+  </si>
+  <si>
+    <t>shankar61@gmail.com</t>
+  </si>
+  <si>
+    <t>prem15@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -426,18 +435,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C6A155-178F-4AB4-ADD2-C65B415A92DF}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="21.85546875" customWidth="1"/>
+    <col min="1" max="6" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,12 +466,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -473,15 +482,33 @@
       <c r="E2">
         <v>12345678</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>12345456</v>
+      </c>
+      <c r="E3">
+        <v>12345456</v>
+      </c>
+      <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{E7C13D51-5311-4633-B9A1-D03655124317}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{87062FD4-D872-4B9B-AF04-AB864D1D9BE0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/AutomaticResumeFilter/src/resources/ARF Signup.xlsx
+++ b/AutomaticResumeFilter/src/resources/ARF Signup.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashmittal2\Desktop\Automatic-Resume-Filter-Automation\AutomaticResumeFilter\src\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksaravanakumar\Documents\New folder\AutomaticResumeFilter\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27C6B9A-B3E6-44F9-9415-E58482F81446}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360C6513-EB57-462B-BC92-BA280301D65A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E2DA63AA-E650-44EA-865C-7A408172C52D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E2DA63AA-E650-44EA-865C-7A408172C52D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,16 +63,16 @@
     <t>prem</t>
   </si>
   <si>
-    <t>shankar1217</t>
-  </si>
-  <si>
-    <t>prem1217</t>
-  </si>
-  <si>
-    <t>shankar61@gmail.com</t>
-  </si>
-  <si>
-    <t>prem15@gmail.com</t>
+    <t>prem23@gmail.com</t>
+  </si>
+  <si>
+    <t>shankar1222</t>
+  </si>
+  <si>
+    <t>prem1222</t>
+  </si>
+  <si>
+    <t>shankar72@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -438,15 +438,15 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="21.81640625" customWidth="1"/>
+    <col min="1" max="6" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,15 +466,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>12345678</v>
@@ -483,15 +483,15 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>12345456</v>

--- a/AutomaticResumeFilter/src/resources/ARF Signup.xlsx
+++ b/AutomaticResumeFilter/src/resources/ARF Signup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksaravanakumar\Documents\New folder\AutomaticResumeFilter\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360C6513-EB57-462B-BC92-BA280301D65A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4B35CD-2DBB-41A8-8D8A-9C41AC94610D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E2DA63AA-E650-44EA-865C-7A408172C52D}"/>
   </bookViews>
@@ -63,16 +63,16 @@
     <t>prem</t>
   </si>
   <si>
-    <t>prem23@gmail.com</t>
-  </si>
-  <si>
-    <t>shankar1222</t>
-  </si>
-  <si>
-    <t>prem1222</t>
-  </si>
-  <si>
-    <t>shankar72@gmail.com</t>
+    <t>prem1227</t>
+  </si>
+  <si>
+    <t>shankar1227</t>
+  </si>
+  <si>
+    <t>shankar77@gmail.com</t>
+  </si>
+  <si>
+    <t>prem28@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,7 +471,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -488,10 +488,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
       <c r="D3">
         <v>12345456</v>

--- a/AutomaticResumeFilter/src/resources/ARF Signup.xlsx
+++ b/AutomaticResumeFilter/src/resources/ARF Signup.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksaravanakumar\Documents\New folder\AutomaticResumeFilter\src\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashmittal2\Desktop\Automatic-Resume-Filter-Automation\AutomaticResumeFilter\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4B35CD-2DBB-41A8-8D8A-9C41AC94610D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE551C02-344D-4945-A002-D7524ED2BE89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E2DA63AA-E650-44EA-865C-7A408172C52D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E2DA63AA-E650-44EA-865C-7A408172C52D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,16 +63,16 @@
     <t>prem</t>
   </si>
   <si>
-    <t>prem1227</t>
-  </si>
-  <si>
-    <t>shankar1227</t>
-  </si>
-  <si>
-    <t>shankar77@gmail.com</t>
-  </si>
-  <si>
-    <t>prem28@gmail.com</t>
+    <t>shankar1239</t>
+  </si>
+  <si>
+    <t>prem1239</t>
+  </si>
+  <si>
+    <t>shankar87@gmail.com</t>
+  </si>
+  <si>
+    <t>prem38@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -438,15 +438,15 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="21.77734375" customWidth="1"/>
+    <col min="1" max="6" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -474,7 +474,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>12345678</v>
@@ -483,7 +483,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -491,7 +491,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>12345456</v>

--- a/AutomaticResumeFilter/src/resources/ARF Signup.xlsx
+++ b/AutomaticResumeFilter/src/resources/ARF Signup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashmittal2\Desktop\Automatic-Resume-Filter-Automation\AutomaticResumeFilter\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE551C02-344D-4945-A002-D7524ED2BE89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8366CC-F638-43F4-A92D-A877327593FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E2DA63AA-E650-44EA-865C-7A408172C52D}"/>
   </bookViews>
@@ -63,16 +63,16 @@
     <t>prem</t>
   </si>
   <si>
-    <t>shankar1239</t>
-  </si>
-  <si>
-    <t>prem1239</t>
-  </si>
-  <si>
-    <t>shankar87@gmail.com</t>
-  </si>
-  <si>
-    <t>prem38@gmail.com</t>
+    <t>shankar1241</t>
+  </si>
+  <si>
+    <t>prem1241</t>
+  </si>
+  <si>
+    <t>shankar89@gmail.com</t>
+  </si>
+  <si>
+    <t>prem40@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
